--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>593</v>
+        <v>591.1889053626218</v>
       </c>
       <c r="C2">
-        <v>372</v>
+        <v>370.7240588753156</v>
       </c>
       <c r="D2">
-        <v>312</v>
+        <v>312.0760440438579</v>
       </c>
       <c r="E2">
-        <v>275</v>
+        <v>274.6007624900782</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>709</v>
+        <v>706.539529825127</v>
       </c>
       <c r="C3">
-        <v>442</v>
+        <v>440.5443958823474</v>
       </c>
       <c r="D3">
-        <v>368</v>
+        <v>367.5404322105073</v>
       </c>
       <c r="E3">
-        <v>327</v>
+        <v>326.0277131780947</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>717</v>
+        <v>715.1048550385578</v>
       </c>
       <c r="C4">
-        <v>444</v>
+        <v>442.785858205543</v>
       </c>
       <c r="D4">
-        <v>368</v>
+        <v>367.1781300116164</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>325.1895444952996</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>545</v>
+        <v>544.295832905458</v>
       </c>
       <c r="C5">
-        <v>324</v>
+        <v>323.777547441535</v>
       </c>
       <c r="D5">
-        <v>258</v>
+        <v>257.8501257606252</v>
       </c>
       <c r="E5">
-        <v>229</v>
+        <v>228.2999937279845</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>482</v>
+        <v>481.1783049099772</v>
       </c>
       <c r="C6">
-        <v>286</v>
+        <v>285.498380909673</v>
       </c>
       <c r="D6">
-        <v>229</v>
+        <v>229.1516582824213</v>
       </c>
       <c r="E6">
-        <v>201</v>
+        <v>200.2069709732834</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>54.83687935742706</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>31.23958445848835</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>24.62755649136491</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>21.2165279986595</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1338</v>
+        <v>1331.242707437317</v>
       </c>
       <c r="C8">
-        <v>1101</v>
+        <v>1096.965321119155</v>
       </c>
       <c r="D8">
-        <v>1040</v>
+        <v>1036.678090764719</v>
       </c>
       <c r="E8">
-        <v>1062</v>
+        <v>1058.730947649033</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>627</v>
+        <v>624.5632035571942</v>
       </c>
       <c r="C9">
-        <v>386</v>
+        <v>385.5847459911026</v>
       </c>
       <c r="D9">
-        <v>320</v>
+        <v>319.1188920320095</v>
       </c>
       <c r="E9">
-        <v>283</v>
+        <v>282.7667903645179</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>322</v>
+        <v>320.02988804888</v>
       </c>
       <c r="C10">
-        <v>180</v>
+        <v>179.2592538594663</v>
       </c>
       <c r="D10">
-        <v>143</v>
+        <v>142.6037805361524</v>
       </c>
       <c r="E10">
-        <v>122</v>
+        <v>121.2436951680541</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>60.50120700807447</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>31.59537102645282</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>24.69471916938721</v>
       </c>
       <c r="E11">
-        <v>23</v>
+        <v>22.62977408003405</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>141</v>
+        <v>139.3682673508567</v>
       </c>
       <c r="C12">
-        <v>83</v>
+        <v>82.3435814059286</v>
       </c>
       <c r="D12">
-        <v>65</v>
+        <v>65.23333897258398</v>
       </c>
       <c r="E12">
-        <v>55</v>
+        <v>54.80657424704891</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>180</v>
+        <v>179.2266158371581</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>99.82749828450733</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>80.20582558385682</v>
       </c>
       <c r="E13">
-        <v>69</v>
+        <v>69.00605023841192</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>591.1889053626218</v>
+        <v>591.1889053626226</v>
       </c>
       <c r="C2">
-        <v>370.7240588753156</v>
+        <v>370.7240588753158</v>
       </c>
       <c r="D2">
-        <v>312.0760440438579</v>
+        <v>312.0760440438578</v>
       </c>
       <c r="E2">
-        <v>274.6007624900782</v>
+        <v>274.6007624900781</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>706.539529825127</v>
+        <v>706.5395298251274</v>
       </c>
       <c r="C3">
-        <v>440.5443958823474</v>
+        <v>440.5443958823473</v>
       </c>
       <c r="D3">
-        <v>367.5404322105073</v>
+        <v>367.5404322105072</v>
       </c>
       <c r="E3">
-        <v>326.0277131780947</v>
+        <v>326.0277131780949</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>715.1048550385578</v>
+        <v>715.104855038558</v>
       </c>
       <c r="C4">
-        <v>442.785858205543</v>
+        <v>442.7858582055435</v>
       </c>
       <c r="D4">
-        <v>367.1781300116164</v>
+        <v>367.1781300116165</v>
       </c>
       <c r="E4">
         <v>325.1895444952996</v>
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>544.295832905458</v>
+        <v>544.2958329054586</v>
       </c>
       <c r="C5">
         <v>323.777547441535</v>
@@ -448,7 +448,7 @@
         <v>257.8501257606252</v>
       </c>
       <c r="E5">
-        <v>228.2999937279845</v>
+        <v>228.2999937279844</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>481.1783049099772</v>
+        <v>481.1783049099778</v>
       </c>
       <c r="C6">
         <v>285.498380909673</v>
       </c>
       <c r="D6">
-        <v>229.1516582824213</v>
+        <v>229.1516582824211</v>
       </c>
       <c r="E6">
-        <v>200.2069709732834</v>
+        <v>200.2069709732835</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>54.83687935742706</v>
+        <v>54.83687935742709</v>
       </c>
       <c r="C7">
         <v>31.23958445848835</v>
       </c>
       <c r="D7">
-        <v>24.62755649136491</v>
+        <v>24.6275564913649</v>
       </c>
       <c r="E7">
-        <v>21.2165279986595</v>
+        <v>21.21652799865949</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1331.242707437317</v>
+        <v>1331.242707437316</v>
       </c>
       <c r="C8">
-        <v>1096.965321119155</v>
+        <v>1096.965321119154</v>
       </c>
       <c r="D8">
         <v>1036.678090764719</v>
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>624.5632035571942</v>
+        <v>624.5632035571949</v>
       </c>
       <c r="C9">
-        <v>385.5847459911026</v>
+        <v>385.5847459911028</v>
       </c>
       <c r="D9">
-        <v>319.1188920320095</v>
+        <v>319.1188920320096</v>
       </c>
       <c r="E9">
-        <v>282.7667903645179</v>
+        <v>282.766790364518</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>320.02988804888</v>
+        <v>320.0298880488805</v>
       </c>
       <c r="C10">
-        <v>179.2592538594663</v>
+        <v>179.2592538594662</v>
       </c>
       <c r="D10">
         <v>142.6037805361524</v>
       </c>
       <c r="E10">
-        <v>121.2436951680541</v>
+        <v>121.2436951680542</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>60.50120700807447</v>
+        <v>60.50120700807455</v>
       </c>
       <c r="C11">
-        <v>31.59537102645282</v>
+        <v>31.59537102645284</v>
       </c>
       <c r="D11">
         <v>24.69471916938721</v>
       </c>
       <c r="E11">
-        <v>22.62977408003405</v>
+        <v>22.62977408003403</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>139.3682673508567</v>
+        <v>139.3682673508568</v>
       </c>
       <c r="C12">
-        <v>82.3435814059286</v>
+        <v>82.34358140592862</v>
       </c>
       <c r="D12">
-        <v>65.23333897258398</v>
+        <v>65.23333897258401</v>
       </c>
       <c r="E12">
-        <v>54.80657424704891</v>
+        <v>54.8065742470489</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,13 +575,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>179.2266158371581</v>
+        <v>179.2266158371582</v>
       </c>
       <c r="C13">
-        <v>99.82749828450733</v>
+        <v>99.8274982845073</v>
       </c>
       <c r="D13">
-        <v>80.20582558385682</v>
+        <v>80.20582558385681</v>
       </c>
       <c r="E13">
         <v>69.00605023841192</v>
